--- a/data/income_statement/3digits/total/422_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/422_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>422-Construction of utility projects</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>422-Construction of utility projects</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>8797974.560549999</v>
+        <v>8797974.560550001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>8529356.710789999</v>
+        <v>8529356.710790001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8760980.001389999</v>
+        <v>8764190.47054</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9379269.136880001</v>
+        <v>9394753.028109999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11706421.6031</v>
+        <v>11872574.49871</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>17594875.67007</v>
+        <v>17950926.82678</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>14770600.64026</v>
+        <v>16920826.8166</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>19373577.41757</v>
+        <v>19374469.79963</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>24621696.61687</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>32099906.23034</v>
+        <v>32318706.2694</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>34603295.61666001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>35270492.39728999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>44643609.735</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>8141439.98317</v>
@@ -995,58 +906,63 @@
         <v>7834663.70134</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7996019.316610001</v>
+        <v>7999229.78576</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8405883.617890002</v>
+        <v>8421363.406579999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10375960.66733</v>
+        <v>10536532.19713</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>15386884.36967</v>
+        <v>15741939.53471</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13281511.79502</v>
+        <v>15318505.94162</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>17675198.27733</v>
+        <v>17676093.35231</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>23129123.80859</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>29174342.96069</v>
+        <v>29389946.84576</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>31769286.48547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>32418232.58427</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>41619754.704</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>559569.18279</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>590327.4543599999</v>
+        <v>590327.45436</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>638579.26</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>828740.0054100001</v>
+        <v>828740.00541</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1121983.04422</v>
+        <v>1127169.52847</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1994879.24502</v>
+        <v>1995019.76866</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1281266.52728</v>
+        <v>1389432.13115</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1447285.95015</v>
@@ -1055,16 +971,21 @@
         <v>1132726.39217</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2377535.10808</v>
+        <v>2380264.98594</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2207513.10184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2221730.90922</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2231133.711</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>96965.39459000001</v>
@@ -1076,34 +997,39 @@
         <v>126381.42478</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>144645.51358</v>
+        <v>144649.61612</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>208477.89155</v>
+        <v>208872.77311</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>213112.05538</v>
+        <v>213967.52341</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>207822.31796</v>
+        <v>212888.74383</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>251093.19009</v>
+        <v>251090.49717</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>359846.41611</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>548028.1615699999</v>
+        <v>548494.4377</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>626496.02935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>630528.9038</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>792721.3199999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>89733.00906</v>
@@ -1115,34 +1041,39 @@
         <v>183763.56944</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>74791.12804000001</v>
+        <v>74791.12804</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>89965.03913999999</v>
+        <v>90107.76594</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>210148.39694</v>
+        <v>210149.41965</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>231589.33054</v>
+        <v>235463.94286</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>418328.5157100001</v>
+        <v>418328.51571</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>966682.95677</v>
+        <v>966682.9567699999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>409032.47539</v>
+        <v>409098.7381</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1023989.4284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1024394.78089</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1312061.945</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>17677.66544</v>
@@ -1157,13 +1088,13 @@
         <v>22176.86468</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>36723.00373</v>
+        <v>36863.50273000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>102532.73141</v>
+        <v>102533.75412</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>134864.14832</v>
+        <v>138724.47156</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>147680.0138</v>
@@ -1172,19 +1103,24 @@
         <v>99074.51947</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>141144.72928</v>
+        <v>141210.99199</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>248647.44579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>248876.70286</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>737149.058</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>71739.46569000001</v>
+        <v>71739.46569</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>476874.10631</v>
@@ -1193,34 +1129,39 @@
         <v>155084.83962</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>44462.72193</v>
+        <v>44462.72193000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>50685.75335</v>
+        <v>50687.98115000001</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>104264.59303</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>93229.62340999999</v>
+        <v>93243.88312</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>266509.60417</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>862902.3003600001</v>
+        <v>862902.30036</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>254959.10876</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>753764.34856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>753924.34078</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>566460.892</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>315.87793</v>
@@ -1241,7 +1182,7 @@
         <v>3351.0725</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3495.55881</v>
+        <v>3495.58818</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>4138.897739999999</v>
@@ -1253,52 +1194,62 @@
         <v>12928.63735</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>21577.63405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21593.73725</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>8451.995000000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>8708241.55149</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>8025140.27914</v>
+        <v>8025140.279139999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8577216.431949999</v>
+        <v>8580426.9011</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9304478.00884</v>
+        <v>9319961.90007</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>11616456.56396</v>
+        <v>11782466.73277</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>17384727.27313</v>
+        <v>17740777.40713</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>14539011.30972</v>
+        <v>16685362.87374</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>18955248.90186</v>
+        <v>18956141.28392</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>23655013.6601</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>31690873.75495</v>
+        <v>31909607.5313</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>33579306.18826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>34246097.6164</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>43331547.79</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>7573850.39077</v>
@@ -1307,37 +1258,42 @@
         <v>7145730.00912</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7472172.576189999</v>
+        <v>7475996.35374</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8171237.02113</v>
+        <v>8184683.178760001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10104088.63322</v>
+        <v>10268701.41303</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>15478701.85965</v>
+        <v>15828067.75057</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>12736700.70655</v>
+        <v>14672579.44897</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16291731.51902</v>
+        <v>16292249.34386</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>21010773.16417</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>26812496.36465</v>
+        <v>27022625.28347</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>28634219.39469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>29230664.13465</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>38812112.657</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>496984.12801</v>
@@ -1346,19 +1302,19 @@
         <v>375436.13688</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>370582.09487</v>
+        <v>371869.40402</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>373503.41163</v>
+        <v>374351.4840999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>546889.9270499999</v>
+        <v>547163.8078</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>687662.96421</v>
+        <v>687994.5134500001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>814903.0721200001</v>
+        <v>832151.68904</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>881014.5595099999</v>
@@ -1367,16 +1323,21 @@
         <v>1208325.85981</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2465984.2534</v>
+        <v>2467301.40169</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1635397.19727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1645441.50846</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1978973.323</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1603984.86048</v>
@@ -1388,34 +1349,39 @@
         <v>1365318.95293</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1418166.95401</v>
+        <v>1418212.0708</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2043557.97859</v>
+        <v>2053149.41314</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3051026.89042</v>
+        <v>3058094.591560001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2587433.85042</v>
+        <v>2684935.35611</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3330665.09189</v>
+        <v>3330661.27289</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>5007686.20412</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>7423619.31255</v>
+        <v>7466655.64995</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>8174304.979299999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>8238614.38282</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>10531445.016</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>5428095.05355</v>
@@ -1424,37 +1390,42 @@
         <v>5240211.31862</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>5714698.938100001</v>
+        <v>5714701.767659999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6301672.4519</v>
+        <v>6314225.42027</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>7481526.35743</v>
+        <v>7636175.28411</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>11587384.89071</v>
+        <v>11927350.44321</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>9286579.284499999</v>
+        <v>11099146.04153</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>11987822.25392</v>
+        <v>11988349.62423</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>14676738.23189</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>16839625.55767</v>
+        <v>17005233.26625</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>18744600.55733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19266083.10433</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>26200561.274</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>44786.34873</v>
@@ -1463,76 +1434,86 @@
         <v>15552.10471</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>21572.59029</v>
+        <v>24106.22913</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>77894.20359</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>32114.37015</v>
+        <v>32212.90798</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>152627.11431</v>
+        <v>154628.20235</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>47784.49951000001</v>
+        <v>56346.36228999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>92229.6137</v>
+        <v>92223.88723000001</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>118022.86835</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>83267.24103</v>
+        <v>83434.96558</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>79916.66079000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>80525.13903999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>101133.044</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1134391.16072</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>879410.2700200001</v>
+        <v>879410.2700199999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1105043.85576</v>
+        <v>1104430.54736</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1133240.98771</v>
+        <v>1135278.72131</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1512367.93074</v>
+        <v>1513765.31974</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1906025.41348</v>
+        <v>1912709.65656</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1802310.60317</v>
+        <v>2012783.42477</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2663517.38284</v>
+        <v>2663891.94006</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2644240.49593</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4878377.3903</v>
+        <v>4886982.24783</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4945086.79357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5015433.48175</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4519435.133</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>437810.18317</v>
@@ -1541,37 +1522,42 @@
         <v>543162.12715</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>722929.48653</v>
+        <v>723666.52749</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1237688.09703</v>
+        <v>1237891.08701</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>944697.58086</v>
+        <v>949750.35312</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>996551.45045</v>
+        <v>1004573.67796</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>973373.47126</v>
+        <v>1033945.69456</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1261731.09803</v>
+        <v>1264000.51833</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1390398.34036</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1872861.72541</v>
+        <v>1878304.52475</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2160599.0256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2206393.41701</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2232964.253</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2770.05827</v>
@@ -1592,7 +1578,7 @@
         <v>8589.794019999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3447.18015</v>
+        <v>3447.180150000001</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2168.79834</v>
@@ -1601,19 +1587,24 @@
         <v>2370.27524</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>4602.951919999999</v>
+        <v>4602.95192</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6566.69978</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6566.699779999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>34970.959</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>52571.13611000001</v>
+        <v>52571.13611</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>76275.19691</v>
@@ -1625,70 +1616,80 @@
         <v>148704.97331</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>240193.49822</v>
+        <v>240193.79258</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>225309.36644</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>222468.46877</v>
+        <v>243194.5989</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>298895.42952</v>
+        <v>298895.18421</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>348278.30079</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>458052.44212</v>
+        <v>458061.20277</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>646478.6032599999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>646977.93965</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>717943.223</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>382468.98879</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>465768.6995099999</v>
+        <v>465768.6995100001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>577369.7176399999</v>
+        <v>578106.7586000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1085884.22195</v>
+        <v>1086087.21193</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>699813.6738</v>
+        <v>704866.1517</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>762652.2899899998</v>
+        <v>770674.5175</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>747457.82234</v>
+        <v>787303.91551</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>960666.87017</v>
+        <v>962936.5357799999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1039749.76433</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1410206.33137</v>
+        <v>1415640.37006</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1507553.72256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1552848.77758</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1480050.071</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>696580.9775500001</v>
@@ -1697,76 +1698,86 @@
         <v>336248.14287</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>382114.36923</v>
+        <v>380764.01987</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-104447.10932</v>
+        <v>-102612.3657000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>567670.34988</v>
+        <v>564014.96662</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>909473.96303</v>
+        <v>908135.9785999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>828937.1319100001</v>
+        <v>978837.7302100001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1401786.28481</v>
+        <v>1399891.42173</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1253842.15557</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3005515.66489</v>
+        <v>3008677.72308</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2784487.76797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2809040.06474</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2286470.88</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>540367.9719400001</v>
+        <v>540367.97194</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>823574.1732600001</v>
+        <v>823574.17326</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>906021.6798200001</v>
+        <v>906063.5264600001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>971442.97063</v>
+        <v>971830.29316</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1264011.53388</v>
+        <v>1266338.96633</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2397998.69802</v>
+        <v>2401692.94501</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4159520.03776</v>
+        <v>4701190.82811</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4645613.6162</v>
+        <v>4646671.76902</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>5507335.81</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>10596619.53739</v>
+        <v>10628211.58856</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5215450.612989999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5254495.799649999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>10596534.498</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>37518.26637</v>
@@ -1781,31 +1792,36 @@
         <v>24181.02061</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>49706.05420999999</v>
+        <v>49706.05421000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>99983.14673000001</v>
+        <v>99983.14672999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>71020.34447</v>
+        <v>78375.37979000001</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>37620.52293</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>50249.19432000001</v>
+        <v>50249.19432</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>50467.92616</v>
+        <v>54245.89972</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>87374.83996000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>89495.07787000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>81279.895</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>6025.009859999999</v>
@@ -1820,13 +1836,13 @@
         <v>10000.39648</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>9586.911209999998</v>
+        <v>10617.19166</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>27970.07453</v>
+        <v>29389.32379</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>17496.17789</v>
+        <v>19961.48487</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>41995.52916</v>
@@ -1838,13 +1854,18 @@
         <v>105597.70195</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>39963.73424000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>42863.07593</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>536277.037</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>54405.21581</v>
@@ -1856,34 +1877,39 @@
         <v>115976.64051</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>334019.51278</v>
+        <v>334378.58622</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>174341.41713</v>
+        <v>174848.75442</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>277820.50608</v>
+        <v>278107.21475</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>264361.12372</v>
+        <v>371686.87175</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>455602.97537</v>
+        <v>456559.90476</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>699830.77946</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>612397.9838500001</v>
+        <v>618279.93518</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>553853.2515</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>558164.6418100001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>509431.449</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>808.7056899999999</v>
@@ -1892,7 +1918,7 @@
         <v>1397.15401</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>760.87754</v>
+        <v>760.8775400000001</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>1688.03439</v>
@@ -1901,10 +1927,10 @@
         <v>213.8325</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>429.6932400000001</v>
+        <v>434.11975</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>36694.44124999999</v>
+        <v>37529.06495</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>3862.2622</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1272.14079</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1067.967</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>10878.83907</v>
@@ -1943,7 +1974,7 @@
         <v>4132.749150000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2278.31729</v>
+        <v>2376.3615</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>2438.64993</v>
@@ -1955,13 +1986,18 @@
         <v>8334.762409999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>12955.93898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>12946.25955</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3686.705</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2778.17558</v>
@@ -1976,13 +2012,13 @@
         <v>10611.8561</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4775.96962</v>
+        <v>4776.22381</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>13292.22319</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>7351.69599</v>
+        <v>7708.279149999999</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>2942.67773</v>
@@ -1991,16 +2027,21 @@
         <v>7823.93082</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>14694.41769</v>
+        <v>14698.36561</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>16531.74498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>16535.86999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>12699.172</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>371454.57147</v>
@@ -2009,37 +2050,42 @@
         <v>409910.36035</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>634115.63989</v>
+        <v>634157.48653</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>449009.41842</v>
+        <v>449037.66751</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>822639.89433</v>
+        <v>823352.32221</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1789471.00951</v>
+        <v>1791121.23181</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3621564.38629</v>
+        <v>4030436.82077</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3895578.00816</v>
+        <v>3895709.305800001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4366485.44082</v>
+        <v>4366485.440820001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>9158432.94208</v>
+        <v>9180391.917090001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3675873.99019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3700341.5242</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8054343.459</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>4086.16308</v>
@@ -2054,10 +2100,10 @@
         <v>342.77591</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>601.9240600000001</v>
+        <v>601.9240599999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1225.54429</v>
+        <v>1507.55165</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>1471.65326</v>
@@ -2072,13 +2118,18 @@
         <v>2931.8688</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>4611.493249999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>4510.39752</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>2923.88</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4563.894709999999</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>33.06495</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>19.312</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>47849.1303</v>
@@ -2132,70 +2188,80 @@
         <v>122637.37679</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>188200.90833</v>
+        <v>188278.04097</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>183499.09587</v>
+        <v>183550.72876</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>137273.47802</v>
+        <v>151636.49249</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>203917.6585</v>
+        <v>203887.58429</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>338881.26087</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>642948.8496899999</v>
+        <v>642918.0530399999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>822980.4141500001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>828333.7470399999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1394805.622</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>510916.37507</v>
+        <v>510916.3750700001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>471087.02563</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>640322.40888</v>
+        <v>640404.7167100001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>549060.7362200001</v>
+        <v>549168.08375</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>933275.5155299999</v>
+        <v>934007.8096200001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1820407.07587</v>
+        <v>1823433.0328</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3657326.3259</v>
+        <v>3957374.22551</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4098342.851059999</v>
+        <v>4098709.5825</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4611251.463879999</v>
+        <v>4611251.46388</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>10037094.83556</v>
+        <v>10068176.3769</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>4360800.744969999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4393647.65931</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>8935752.628</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>870.4650800000001</v>
@@ -2210,13 +2276,13 @@
         <v>2047.05222</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>6212.14358</v>
+        <v>6214.433950000001</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>14517.6343</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1839.1846</v>
+        <v>1917.99709</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1445.8558</v>
@@ -2225,16 +2291,21 @@
         <v>2210.08067</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1924.98035</v>
+        <v>1929.42435</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2275.22198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2275.300639999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1631.54</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>28198.22358</v>
@@ -2255,7 +2326,7 @@
         <v>31540.38</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>7580.29442</v>
+        <v>8062.392690000001</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>35196.34348999999</v>
@@ -2264,16 +2335,21 @@
         <v>17057.10511</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>88877.88393</v>
+        <v>88877.88393000001</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>26439.28407</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>19897.885</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>11613.69409</v>
@@ -2291,7 +2367,7 @@
         <v>21924.86159</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>5217.88717</v>
+        <v>5217.92994</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>1488.2411</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>38099.77209000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3044.3</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>407523.99902</v>
@@ -2321,37 +2402,42 @@
         <v>383840.6584899999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>572177.42371</v>
+        <v>572197.7933500001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>453517.58547</v>
+        <v>453517.97862</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>833986.8496900001</v>
+        <v>834408.75788</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1631050.91706</v>
+        <v>1633083.10875</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3531669.69162</v>
+        <v>3820236.9741</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3890164.40177</v>
+        <v>3890806.57564</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>4193386.40454</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>9210638.905130001</v>
+        <v>9241180.80153</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3558048.4977</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3588563.05794</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>8555516.012</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>287.96998</v>
@@ -2369,7 +2455,7 @@
         <v>351.13025</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>565.3996699999999</v>
+        <v>596.1455</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>484.30653</v>
@@ -2381,16 +2467,21 @@
         <v>47891.79514</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>101.08627</v>
+        <v>118.21767</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>880.56425</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1086.405</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>2301.89901</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>21.225</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>60120.12430999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>77407.11051</v>
+        <v>77407.11050999998</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>49596.13974</v>
+        <v>49658.07793</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>47556.00717999999</v>
+        <v>47662.96156</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>57642.00547</v>
+        <v>57950.101</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>131891.58416</v>
+        <v>132854.5608</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>114060.11678</v>
+        <v>124979.82315</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>165856.03926</v>
+        <v>165580.59683</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>317632.33212</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>729628.27573</v>
+        <v>730146.3452699999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>735056.15488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>737388.4303199999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>354555.261</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>94123.84529000001</v>
+        <v>94123.84529</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>131203.58391</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>215443.59867</v>
+        <v>215445.74933</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>246940.89856</v>
+        <v>247005.37002</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>284023.00002</v>
+        <v>285236.31285</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>420036.72379</v>
+        <v>422467.58888</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>508805.39762</v>
+        <v>694017.90495</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>808437.50202</v>
+        <v>808449.5727</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1166874.43256</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2374250.69193</v>
+        <v>2375410.47033</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2514017.68279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2524516.33234</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2887429.2</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>90507.09466000002</v>
+        <v>90507.09466</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>126202.64866</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>206067.01801</v>
+        <v>206069.16867</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>229893.74501</v>
+        <v>229958.21647</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>242188.91555</v>
+        <v>243402.22838</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>326963.63992</v>
+        <v>329393.27501</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>385113.23761</v>
+        <v>529252.86287</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>639524.18675</v>
+        <v>639536.25743</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>908010.03662</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1928268.40916</v>
+        <v>1929428.18756</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2122622.08</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2130770.18069</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1536216.428</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3616.75063</v>
@@ -2555,19 +2666,19 @@
         <v>5000.93525</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>9376.580659999998</v>
+        <v>9376.58066</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>17047.15355</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>41834.08447000001</v>
+        <v>41834.08447</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>93073.08386999999</v>
+        <v>93074.31387</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>123692.16001</v>
+        <v>164765.04208</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>168913.31527</v>
@@ -2579,13 +2690,18 @@
         <v>445982.28277</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>391395.60279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>393746.15165</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1351212.772</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>631908.72913</v>
@@ -2594,37 +2710,42 @@
         <v>557531.7065900001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>432370.0415</v>
+        <v>430977.08029</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>70994.22653</v>
+        <v>73044.47369</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>614383.36821</v>
+        <v>611109.81048</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1067028.86139</v>
+        <v>1063928.30193</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>822325.44615</v>
+        <v>1028636.42786</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1140619.54793</v>
+        <v>1139404.03555</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>983052.06913</v>
+        <v>983052.0691300001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1190789.67479</v>
+        <v>1193302.46441</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1125119.9532</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1145371.87274</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1059823.55</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>55406.24484000001</v>
@@ -2633,37 +2754,42 @@
         <v>105608.84716</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>150118.57966</v>
+        <v>150497.23032</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>96978.74586000001</v>
+        <v>97066.20901999998</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>149660.20284</v>
+        <v>153315.18167</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>200179.05644</v>
+        <v>205232.71103</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>335367.87669</v>
+        <v>365210.63959</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>165021.8507</v>
+        <v>164897.33182</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>317938.5418</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>396458.85525</v>
+        <v>397972.348</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>414231.1130499999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>416840.90517</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>610528.4449999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>14889.7326</v>
@@ -2678,16 +2804,16 @@
         <v>14992.22899</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>9380.16949</v>
+        <v>10371.86332</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>43191.45573</v>
+        <v>44655.77576</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>25913.69567</v>
+        <v>26567.23327</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>7220.62201</v>
+        <v>7258.222009999999</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>40920.93203</v>
@@ -2696,13 +2822,18 @@
         <v>65488.83789</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>72064.11189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>72236.72577</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>19354.209</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>40516.51224</v>
@@ -2711,76 +2842,86 @@
         <v>89984.38483</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>110135.61591</v>
+        <v>110514.26657</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>81986.51687000001</v>
+        <v>82073.98003000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>140280.03335</v>
+        <v>142943.31835</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>156987.60071</v>
+        <v>160576.93527</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>309454.18102</v>
+        <v>338643.40632</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>157801.22869</v>
+        <v>157639.10981</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>277017.60977</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>330970.01736</v>
+        <v>332483.51011</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>342167.00116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>344604.1794</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>591174.236</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>91786.85004</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>97759.96224000001</v>
+        <v>97759.96223999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>560604.4855399999</v>
+        <v>560642.9216</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>114556.72182</v>
+        <v>114634.46479</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>129142.45261</v>
+        <v>133385.27741</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>319077.69836</v>
+        <v>325584.29645</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>221442.31568</v>
+        <v>238042.83184</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>355399.00363</v>
+        <v>355111.10033</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>408917.00537</v>
+        <v>408917.0053700001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>549258.27975</v>
+        <v>551103.76988</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>315736.36013</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>323080.17895</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>405271.126</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1055.81463</v>
@@ -2801,7 +2942,7 @@
         <v>2297.3189</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>9379.077509999997</v>
+        <v>9379.077509999999</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>2935.26107</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>3576.12008</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>6473.093</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>15401.90507</v>
@@ -2834,31 +2980,36 @@
         <v>16294.1237</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>19907.1722</v>
+        <v>21849.99653</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>45631.8971</v>
+        <v>46802.10803</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>26690.33499</v>
+        <v>31019.88365</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>36131.79946</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>81366.08265000001</v>
+        <v>81366.08265</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>93395.09219</v>
+        <v>93664.69959999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>57756.20107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>58173.26961</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>34233.194</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>75329.13034</v>
@@ -2867,37 +3018,42 @@
         <v>70430.51327000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>515560.75301</v>
+        <v>515599.1890699999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>96756.99167</v>
+        <v>96834.73464</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>107902.85875</v>
+        <v>110202.85922</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>271148.48236</v>
+        <v>276484.86952</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>185372.90318</v>
+        <v>197643.87068</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>316331.9431</v>
+        <v>316044.0398</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>314955.34768</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>445282.64839</v>
+        <v>446858.53111</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>254404.03898</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>261330.78926</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>364564.839</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>595528.12393</v>
@@ -2906,37 +3062,42 @@
         <v>565380.5915099999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>21884.13562</v>
+        <v>20831.38901000002</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>53416.25056999999</v>
+        <v>55476.21791999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>634901.1184400001</v>
+        <v>631039.7147399999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>948130.21947</v>
+        <v>943576.7165100001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>936251.00716</v>
+        <v>1155804.23561</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>950242.3949999999</v>
+        <v>949190.2670399999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>892073.6055599999</v>
+        <v>892073.6055600002</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1037990.25029</v>
+        <v>1040171.04253</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1223614.70612</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1239132.59896</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1265080.869</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>98839.9137</v>
@@ -2948,70 +3109,78 @@
         <v>129623.31529</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>129561.76367</v>
+        <v>130005.92708</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>156651.76362</v>
+        <v>157204.61148</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>265467.86395</v>
+        <v>266732.21187</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>229986.15794</v>
+        <v>298795.89874</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>378394.48308</v>
+        <v>378474.57227</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>358985.52153</v>
+        <v>358985.5215300001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>523084.41703</v>
+        <v>526336.49363</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>430597.5441500001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>437917.2777</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>404614.506</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>496688.21023</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>468832.4057499999</v>
+        <v>468832.40575</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-107739.17967</v>
+        <v>-108791.92628</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-76145.51310000001</v>
+        <v>-74529.70916000003</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>478249.35482</v>
+        <v>473835.10326</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>682662.3555199999</v>
+        <v>676844.5046399999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>706264.84922</v>
+        <v>857008.33687</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>571847.9119200001</v>
+        <v>570715.6947699999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>533088.08403</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>514905.8332600001</v>
+        <v>513834.5489000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>793017.1619699999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>801215.32126</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>860466.363</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2234</v>
@@ -3038,34 +3210,37 @@
         <v>2505</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2934</v>
+        <v>2938</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3277</v>
+        <v>3292</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3315</v>
+        <v>3345</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3469</v>
+        <v>3575</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3510</v>
+        <v>3531</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3698</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3599</v>
+        <v>3731</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3690</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>